--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.04.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.04.xlsx
@@ -49,39 +49,39 @@
     <t>גב' רונן</t>
   </si>
   <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t>יעל נעים מאוד.</t>
+  </si>
+  <si>
+    <t>(לא נשמע).</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>כן, יואב.</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>יעל נעים מאוד.</t>
-  </si>
-  <si>
-    <t>(לא נשמע).</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>כן, יואב.</t>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>כן.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>הוא הגיע אתך.</t>
   </si>
   <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>הוא הגיע אתך.</t>
-  </si>
-  <si>
     <t>הגענו אתמול כבר.</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
     <t>לילד בן חמש?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -832,10 +832,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -849,10 +849,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -877,10 +877,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -919,10 +919,10 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -933,7 +933,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -947,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -978,7 +978,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1006,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1045,7 +1045,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1059,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1073,10 +1073,10 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1087,10 +1087,10 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1101,10 +1101,10 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1118,7 +1118,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1129,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -1157,7 +1157,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1199,10 +1199,10 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1216,7 +1216,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1227,10 +1227,10 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1255,7 +1255,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -1269,10 +1269,10 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1283,10 +1283,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1297,10 +1297,10 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1325,10 +1325,10 @@
         <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1339,7 +1339,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -1353,10 +1353,10 @@
         <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1367,10 +1367,10 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1384,7 +1384,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1434,13 +1434,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1479,10 +1479,10 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1507,10 +1507,10 @@
         <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1535,10 +1535,10 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -1563,10 +1563,10 @@
         <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
         <v>14</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1591,10 +1591,10 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1605,7 +1605,7 @@
         <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
         <v>45</v>
@@ -1633,7 +1633,7 @@
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
@@ -1692,7 +1692,7 @@
         <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1703,10 +1703,10 @@
         <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1731,7 +1731,7 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1745,10 +1745,10 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1759,7 +1759,7 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -1773,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -1787,10 +1787,10 @@
         <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -1801,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1818,7 +1818,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1832,7 +1832,7 @@
         <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1913,10 +1913,10 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1927,10 +1927,10 @@
         <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1941,10 +1941,10 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -1955,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
         <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -1983,10 +1983,10 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -1997,7 +1997,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2025,7 +2025,7 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
         <v>30</v>
@@ -2039,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2084,7 +2084,7 @@
         <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2095,10 +2095,10 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2126,7 +2126,7 @@
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -2151,7 +2151,7 @@
         <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2182,7 +2182,7 @@
         <v>45</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2224,7 +2224,7 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -2238,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2266,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
